--- a/water_dataX.xlsx
+++ b/water_dataX.xlsx
@@ -2199,7 +2199,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2210,6 +2210,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2243,22 +2249,22 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2593,7 +2599,7 @@
     <col min="10" max="10" style="7" width="7.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="93">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
